--- a/biology/Médecine/Score_de_NEWS/Score_de_NEWS.xlsx
+++ b/biology/Médecine/Score_de_NEWS/Score_de_NEWS.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le score de NEWS (National Early Warning Score) est un score d'origine britannique permettant la classification de l'urgence d'un patient. Plus le score est élevé, plus la prise en charge doit être rapide.
 Ce score, établi en 2012, est obsolète et a été remplacé par le score NEWS 2 en 2017.
